--- a/notebooks/benchmark_OECM_S3.xlsx
+++ b/notebooks/benchmark_OECM_S3.xlsx
@@ -8533,29 +8533,29 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
     <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A16"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A26:A28"/>
     <mergeCell ref="A29:A31"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="A44:A46"/>
     <mergeCell ref="A47:A49"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="A38:A40"/>
-    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="A56:A58"/>
+    <mergeCell ref="A59:A61"/>
     <mergeCell ref="A62:A64"/>
+    <mergeCell ref="A65:A67"/>
     <mergeCell ref="A68:A70"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="A53:A55"/>
-    <mergeCell ref="A59:A61"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A65:A67"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="A50:A52"/>
-    <mergeCell ref="A56:A58"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -45909,167 +45909,167 @@
     </row>
   </sheetData>
   <mergeCells count="161">
-    <mergeCell ref="B317:B321"/>
-    <mergeCell ref="C167:C171"/>
-    <mergeCell ref="C232:C236"/>
-    <mergeCell ref="B82:B86"/>
-    <mergeCell ref="B147:B151"/>
-    <mergeCell ref="B162:B166"/>
-    <mergeCell ref="A257:A271"/>
-    <mergeCell ref="B267:B271"/>
-    <mergeCell ref="C247:C251"/>
-    <mergeCell ref="C312:C316"/>
-    <mergeCell ref="B137:B141"/>
-    <mergeCell ref="C282:C286"/>
-    <mergeCell ref="B217:B221"/>
+    <mergeCell ref="A2:A16"/>
+    <mergeCell ref="A17:A31"/>
+    <mergeCell ref="A32:A46"/>
+    <mergeCell ref="A47:A61"/>
+    <mergeCell ref="A62:A76"/>
+    <mergeCell ref="A77:A91"/>
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
     <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
+    <mergeCell ref="A167:A181"/>
+    <mergeCell ref="A182:A196"/>
     <mergeCell ref="A197:A211"/>
-    <mergeCell ref="C272:C276"/>
-    <mergeCell ref="C337:C341"/>
-    <mergeCell ref="C32:C36"/>
-    <mergeCell ref="C217:C221"/>
-    <mergeCell ref="C77:C81"/>
-    <mergeCell ref="C87:C91"/>
-    <mergeCell ref="A2:A16"/>
-    <mergeCell ref="B47:B51"/>
-    <mergeCell ref="C197:C201"/>
-    <mergeCell ref="C107:C111"/>
-    <mergeCell ref="C322:C326"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="A47:A61"/>
-    <mergeCell ref="B202:B206"/>
-    <mergeCell ref="C187:C191"/>
-    <mergeCell ref="B102:B106"/>
-    <mergeCell ref="B282:B286"/>
-    <mergeCell ref="A62:A76"/>
-    <mergeCell ref="B322:B326"/>
-    <mergeCell ref="C302:C306"/>
-    <mergeCell ref="B152:B156"/>
-    <mergeCell ref="B297:B301"/>
-    <mergeCell ref="B272:B276"/>
-    <mergeCell ref="C127:C131"/>
-    <mergeCell ref="C212:C216"/>
-    <mergeCell ref="C117:C121"/>
-    <mergeCell ref="C182:C186"/>
-    <mergeCell ref="A167:A181"/>
-    <mergeCell ref="C52:C56"/>
-    <mergeCell ref="B87:B91"/>
-    <mergeCell ref="B187:B191"/>
-    <mergeCell ref="C207:C211"/>
-    <mergeCell ref="C72:C76"/>
-    <mergeCell ref="C287:C291"/>
-    <mergeCell ref="B207:B211"/>
-    <mergeCell ref="C262:C266"/>
+    <mergeCell ref="A212:A226"/>
     <mergeCell ref="A227:A241"/>
     <mergeCell ref="A242:A256"/>
+    <mergeCell ref="A257:A271"/>
+    <mergeCell ref="A272:A286"/>
+    <mergeCell ref="A287:A301"/>
+    <mergeCell ref="A302:A316"/>
+    <mergeCell ref="A317:A331"/>
+    <mergeCell ref="A332:A346"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="B32:B36"/>
+    <mergeCell ref="B37:B41"/>
+    <mergeCell ref="B42:B46"/>
+    <mergeCell ref="B47:B51"/>
+    <mergeCell ref="B52:B56"/>
+    <mergeCell ref="B57:B61"/>
+    <mergeCell ref="B62:B66"/>
+    <mergeCell ref="B67:B71"/>
+    <mergeCell ref="B72:B76"/>
+    <mergeCell ref="B77:B81"/>
+    <mergeCell ref="B82:B86"/>
+    <mergeCell ref="B87:B91"/>
+    <mergeCell ref="B92:B96"/>
+    <mergeCell ref="B97:B101"/>
+    <mergeCell ref="B102:B106"/>
+    <mergeCell ref="B107:B111"/>
+    <mergeCell ref="B112:B116"/>
+    <mergeCell ref="B117:B121"/>
+    <mergeCell ref="B122:B126"/>
+    <mergeCell ref="B127:B131"/>
+    <mergeCell ref="B132:B136"/>
+    <mergeCell ref="B137:B141"/>
+    <mergeCell ref="B142:B146"/>
+    <mergeCell ref="B147:B151"/>
+    <mergeCell ref="B152:B156"/>
+    <mergeCell ref="B157:B161"/>
+    <mergeCell ref="B162:B166"/>
+    <mergeCell ref="B167:B171"/>
+    <mergeCell ref="B172:B176"/>
+    <mergeCell ref="B177:B181"/>
+    <mergeCell ref="B182:B186"/>
+    <mergeCell ref="B187:B191"/>
+    <mergeCell ref="B192:B196"/>
+    <mergeCell ref="B197:B201"/>
+    <mergeCell ref="B202:B206"/>
+    <mergeCell ref="B207:B211"/>
+    <mergeCell ref="B212:B216"/>
+    <mergeCell ref="B217:B221"/>
+    <mergeCell ref="B222:B226"/>
+    <mergeCell ref="B227:B231"/>
+    <mergeCell ref="B232:B236"/>
+    <mergeCell ref="B237:B241"/>
+    <mergeCell ref="B242:B246"/>
+    <mergeCell ref="B247:B251"/>
+    <mergeCell ref="B252:B256"/>
+    <mergeCell ref="B257:B261"/>
+    <mergeCell ref="B262:B266"/>
+    <mergeCell ref="B267:B271"/>
+    <mergeCell ref="B272:B276"/>
+    <mergeCell ref="B277:B281"/>
+    <mergeCell ref="B282:B286"/>
+    <mergeCell ref="B287:B291"/>
+    <mergeCell ref="B292:B296"/>
+    <mergeCell ref="B297:B301"/>
+    <mergeCell ref="B302:B306"/>
+    <mergeCell ref="B307:B311"/>
+    <mergeCell ref="B312:B316"/>
+    <mergeCell ref="B317:B321"/>
+    <mergeCell ref="B322:B326"/>
+    <mergeCell ref="B327:B331"/>
+    <mergeCell ref="B332:B336"/>
+    <mergeCell ref="B337:B341"/>
+    <mergeCell ref="B342:B346"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="C7:C11"/>
+    <mergeCell ref="C12:C16"/>
+    <mergeCell ref="C17:C21"/>
+    <mergeCell ref="C22:C26"/>
+    <mergeCell ref="C27:C31"/>
+    <mergeCell ref="C32:C36"/>
+    <mergeCell ref="C37:C41"/>
+    <mergeCell ref="C42:C46"/>
+    <mergeCell ref="C47:C51"/>
+    <mergeCell ref="C52:C56"/>
+    <mergeCell ref="C57:C61"/>
+    <mergeCell ref="C62:C66"/>
+    <mergeCell ref="C67:C71"/>
+    <mergeCell ref="C72:C76"/>
+    <mergeCell ref="C77:C81"/>
+    <mergeCell ref="C82:C86"/>
+    <mergeCell ref="C87:C91"/>
+    <mergeCell ref="C92:C96"/>
+    <mergeCell ref="C97:C101"/>
+    <mergeCell ref="C102:C106"/>
+    <mergeCell ref="C107:C111"/>
+    <mergeCell ref="C112:C116"/>
+    <mergeCell ref="C117:C121"/>
     <mergeCell ref="C122:C126"/>
-    <mergeCell ref="B222:B226"/>
-    <mergeCell ref="C37:C41"/>
-    <mergeCell ref="B277:B281"/>
-    <mergeCell ref="C92:C96"/>
-    <mergeCell ref="B327:B331"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="C127:C131"/>
+    <mergeCell ref="C132:C136"/>
+    <mergeCell ref="C137:C141"/>
+    <mergeCell ref="C142:C146"/>
+    <mergeCell ref="C147:C151"/>
+    <mergeCell ref="C152:C156"/>
+    <mergeCell ref="C157:C161"/>
+    <mergeCell ref="C162:C166"/>
+    <mergeCell ref="C167:C171"/>
     <mergeCell ref="C172:C176"/>
-    <mergeCell ref="B232:B236"/>
-    <mergeCell ref="B247:B251"/>
-    <mergeCell ref="C147:C151"/>
-    <mergeCell ref="B312:B316"/>
-    <mergeCell ref="C162:C166"/>
-    <mergeCell ref="B77:B81"/>
+    <mergeCell ref="C177:C181"/>
+    <mergeCell ref="C182:C186"/>
+    <mergeCell ref="C187:C191"/>
+    <mergeCell ref="C192:C196"/>
+    <mergeCell ref="C197:C201"/>
+    <mergeCell ref="C202:C206"/>
+    <mergeCell ref="C207:C211"/>
+    <mergeCell ref="C212:C216"/>
+    <mergeCell ref="C217:C221"/>
+    <mergeCell ref="C222:C226"/>
     <mergeCell ref="C227:C231"/>
-    <mergeCell ref="B117:B121"/>
-    <mergeCell ref="B262:B266"/>
-    <mergeCell ref="A77:A91"/>
-    <mergeCell ref="B182:B186"/>
-    <mergeCell ref="A182:A196"/>
+    <mergeCell ref="C232:C236"/>
+    <mergeCell ref="C237:C241"/>
+    <mergeCell ref="C242:C246"/>
+    <mergeCell ref="C247:C251"/>
+    <mergeCell ref="C252:C256"/>
+    <mergeCell ref="C257:C261"/>
+    <mergeCell ref="C262:C266"/>
+    <mergeCell ref="C267:C271"/>
+    <mergeCell ref="C272:C276"/>
     <mergeCell ref="C277:C281"/>
-    <mergeCell ref="B337:B341"/>
-    <mergeCell ref="C2:C6"/>
-    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="C282:C286"/>
+    <mergeCell ref="C287:C291"/>
+    <mergeCell ref="C292:C296"/>
+    <mergeCell ref="C297:C301"/>
+    <mergeCell ref="C302:C306"/>
+    <mergeCell ref="C307:C311"/>
+    <mergeCell ref="C312:C316"/>
+    <mergeCell ref="C317:C321"/>
+    <mergeCell ref="C322:C326"/>
+    <mergeCell ref="C327:C331"/>
     <mergeCell ref="C332:C336"/>
-    <mergeCell ref="C17:C21"/>
-    <mergeCell ref="C222:C226"/>
-    <mergeCell ref="B112:B116"/>
-    <mergeCell ref="B177:B181"/>
-    <mergeCell ref="B192:B196"/>
-    <mergeCell ref="A287:A301"/>
-    <mergeCell ref="C27:C31"/>
-    <mergeCell ref="C67:C71"/>
-    <mergeCell ref="C132:C136"/>
-    <mergeCell ref="B127:B131"/>
-    <mergeCell ref="B197:B201"/>
-    <mergeCell ref="B212:B216"/>
-    <mergeCell ref="C82:C86"/>
-    <mergeCell ref="C327:C331"/>
+    <mergeCell ref="C337:C341"/>
     <mergeCell ref="C342:C346"/>
-    <mergeCell ref="C102:C106"/>
-    <mergeCell ref="C317:C321"/>
-    <mergeCell ref="C62:C66"/>
-    <mergeCell ref="B97:B101"/>
-    <mergeCell ref="B237:B241"/>
-    <mergeCell ref="B302:B306"/>
-    <mergeCell ref="A272:A286"/>
-    <mergeCell ref="A302:A316"/>
-    <mergeCell ref="B292:B296"/>
-    <mergeCell ref="C97:C101"/>
-    <mergeCell ref="C137:C141"/>
-    <mergeCell ref="B52:B56"/>
-    <mergeCell ref="B67:B71"/>
-    <mergeCell ref="C177:C181"/>
-    <mergeCell ref="B132:B136"/>
-    <mergeCell ref="C152:C156"/>
-    <mergeCell ref="C47:C51"/>
-    <mergeCell ref="C192:C196"/>
-    <mergeCell ref="B42:B46"/>
-    <mergeCell ref="B107:B111"/>
-    <mergeCell ref="C252:C256"/>
-    <mergeCell ref="B287:B291"/>
-    <mergeCell ref="C22:C26"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="C202:C206"/>
-    <mergeCell ref="C242:C246"/>
-    <mergeCell ref="B157:B161"/>
-    <mergeCell ref="B342:B346"/>
-    <mergeCell ref="C297:C301"/>
-    <mergeCell ref="B37:B41"/>
-    <mergeCell ref="A212:A226"/>
-    <mergeCell ref="B257:B261"/>
-    <mergeCell ref="C57:C61"/>
-    <mergeCell ref="B92:B96"/>
-    <mergeCell ref="C237:C241"/>
-    <mergeCell ref="C7:C11"/>
-    <mergeCell ref="C292:C296"/>
-    <mergeCell ref="B142:B146"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="A317:A331"/>
-    <mergeCell ref="B72:B76"/>
-    <mergeCell ref="B252:B256"/>
-    <mergeCell ref="C267:C271"/>
-    <mergeCell ref="C307:C311"/>
-    <mergeCell ref="A17:A31"/>
-    <mergeCell ref="B62:B66"/>
-    <mergeCell ref="B122:B126"/>
-    <mergeCell ref="B227:B231"/>
-    <mergeCell ref="B242:B246"/>
-    <mergeCell ref="B32:B36"/>
-    <mergeCell ref="B307:B311"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="C42:C46"/>
-    <mergeCell ref="C157:C161"/>
-    <mergeCell ref="A32:A46"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="B167:B171"/>
-    <mergeCell ref="B332:B336"/>
-    <mergeCell ref="B17:B21"/>
-    <mergeCell ref="C142:C146"/>
-    <mergeCell ref="B57:B61"/>
-    <mergeCell ref="A152:A166"/>
-    <mergeCell ref="A332:A346"/>
-    <mergeCell ref="C112:C116"/>
-    <mergeCell ref="C12:C16"/>
-    <mergeCell ref="C257:C261"/>
-    <mergeCell ref="B172:B176"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
